--- a/public/hasil_rekomendasidosen.xlsx
+++ b/public/hasil_rekomendasidosen.xlsx
@@ -474,17 +474,17 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Muhammad Darrel Azmi Tauhid; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Muhammad Darrel Azmi Tauhid; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; Irfan Alamsyah; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fatha Ariya Prasetya; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza</t>
+          <t>Agustinus Zefanya; IFDHA'UL FITRI; Salma Nadhira Danuningrat; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Muhammad Darrel Azmi Tauhid; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Muhammad Darrel Azmi Tauhid; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; Irfan Alamsyah; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -502,17 +502,17 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhamad Yasir Buana Dyva; AHMAD AFIF; Viragita Athaya Haura</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhamad Yasir Buana Dyva; AHMAD AFIF</t>
+          <t>Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; TAN, MARIA PUTRI ARIYANI; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhamad Yasir Buana Dyva; AHMAD AFIF; Viragita Athaya Haura</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,22 +529,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; Johanna Davina Habeahan; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; MUHAMMAD FARID HILMI; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Daffa Naufal Mumtaz Heryadi; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; Walid Nadirul Ahnaf; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; Anargya Isadhi Maheswara; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Medina Fitri Maulida; Nibras Ramzy; DARMAWAN SETYAPUTRA PURBA; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; RAFIF MUHAMMAD FARRAS; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; ALIYA SHAHIRA; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; Johanna Davina Habeahan; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Rizal Habibi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; MUHAMMAD FARID HILMI; Mohammad Mirza Shahbaz Avianto; Muhammad Rifat Adnan</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Marsya Hasna Khairunnisa; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; Johanna Davina Habeahan; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; MUHAMMAD FARID HILMI; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Marsya Hasna Khairunnisa; Felicia; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; Johanna Davina Habeahan; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; MUHAMMAD FARID HILMI; Mohammad Mirza Shahbaz Avianto; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; DWI PUTRA PRAYOGA SULAEMAN; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Irfan Alamsyah; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Muhammad Faqih; Rizal Habibi; Chairul Rifky Tirtacahyadi; FIKRI NURHAEKAL; Muhammad Rifat Adnan</t>
+          <t>Daffa Naufal Mumtaz Heryadi; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; Walid Nadirul Ahnaf; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; Anargya Isadhi Maheswara; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Medina Fitri Maulida; Nibras Ramzy; DARMAWAN SETYAPUTRA PURBA; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; RAFIF MUHAMMAD FARRAS; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; ALIYA SHAHIRA; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Mike Jared Gunawan; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Marsya Hasna Khairunnisa; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Syafiq Syadidul Azmi; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -562,17 +562,17 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MUHAMMAD LUQMAN HAKIM; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; FARI HAFIZH NUGROHO; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Daffa Kautsar Falih; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; TAN, MARIA PUTRI ARIYANI; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; BRILYAN PANCAR KOMARA; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -589,22 +589,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; naufal akbar rahardjo; Naufal Raya Pragata; Rizky Rasyid Wirakusuma; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Johanna Davina Habeahan; Muhamad Tristan Farand</t>
+          <t>Marsya Hasna Khairunnisa; Syafiq Syadidul Azmi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; Johanna Davina Habeahan; Muhamad Tristan Farand; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Rizal Habibi; Viragita Athaya Haura; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Marsya Hasna Khairunnisa; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; naufal akbar rahardjo; Naufal Raya Pragata; Rizky Rasyid Wirakusuma; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Johanna Davina Habeahan; Muhamad Tristan Farand</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Marsya Hasna Khairunnisa; Felicia; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; MUHAMMAD IHSAN FADHILLAH; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; naufal akbar rahardjo; Naufal Raya Pragata; Rizky Rasyid Wirakusuma; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Johanna Davina Habeahan; Muhamad Tristan Farand; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; NABILA ELORA RASYDA; Eva Fitriyaningsih; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; REVANDRA ATHAYA RIZKIKA; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Rizal Habibi; Viragita Athaya Haura; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL</t>
+          <t>Marsya Hasna Khairunnisa; Syafiq Syadidul Azmi; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -619,24 +619,20 @@
           <t>D06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MUHAMMAD LUQMAN HAKIM; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; Harits Helmi Nabhan; Johanna Davina Habeahan; Rizal Habibi; Dwi Fitriani Azhari; Aszriel Teddy Muhammad</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; DINARANAYA PUTRI HUTAURUK; Johanna Davina Habeahan; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Rizal Habibi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; MUHAMMAD FARID HILMI; Muhammad Rifat Adnan</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Marsya Hasna Khairunnisa; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MUHAMMAD LUQMAN HAKIM; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; Harits Helmi Nabhan; Johanna Davina Habeahan; Rizal Habibi; Dwi Fitriani Azhari; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Daffa Kautsar Falih; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; Walid Nadirul Ahnaf; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; TAN, MARIA PUTRI ARIYANI; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; Mirza Hafiz Muhammad; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Marsya Hasna Khairunnisa; Felicia; BRILYAN PANCAR KOMARA; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MUHAMMAD LUQMAN HAKIM; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; Harits Helmi Nabhan; Johanna Davina Habeahan; Rizal Habibi; Dwi Fitriani Azhari; Aszriel Teddy Muhammad; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; MUHAMMAD GHIFAR AZKA NURHADI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; FADHIL MUMTAZ; Muhammad Faqih; Naufal Raya Pragata; Rifqy Naufal Azmi; REVANDRA ATHAYA RIZKIKA; QUINA RIZKY DAE YUENA SIREGAR; Tsabitha Naylasafa Aurora; AHMAD AFIF; VERGIAWAN ZHAKI RASENDRIA; DINARANAYA PUTRI HUTAURUK; DANELLA NUR AISYAH LATIEF; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; FIKRI NURHAEKAL; MUHAMMAD FARID HILMI; Muhammad Rifat Adnan</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Marsya Hasna Khairunnisa; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; Syafiq Syadidul Azmi; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -654,17 +650,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -682,17 +678,17 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Novia Dwi Lestari; FADHIL MUMTAZ; NABILA ELORA RASYDA; Eva Fitriyaningsih; Mochammad Kevin Ariobimo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Rizky Rasyid Wirakusuma; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR</t>
+          <t>Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; RAFIF RABBANI; Irfan Alamsyah; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Nurul Fadillah; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -707,24 +703,20 @@
           <t>D09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; RAFIF RABBANI; MUHAMMAD ILHAM HAKIM SUHERMAN; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; RAFIF RABBANI; MUHAMMAD ILHAM HAKIM SUHERMAN; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; RAFIF RABBANI; Irfan Alamsyah; Medina Fitri Maulida; Muhammad Giyas Wisnu Rizqi; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; RAFIF RABBANI; MUHAMMAD ILHAM HAKIM SUHERMAN; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Fatha Ariya Prasetya; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; JESSLYN GOWIN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Aulia Azzahra Syafitri; Pramudya Oktareza</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -739,24 +731,20 @@
           <t>D10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Agustinus Zefanya; IFDHA'UL FITRI; Winanci Zahrawaini Setiawan; TAN, MARIA PUTRI ARIYANI; Salsabila Azzahra; DICKY ANUGRAH; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Habib Fabri Arrosyid; Muhamad Yasir Buana Dyva; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; FADHIL MUMTAZ; Muhammad Faqih; Syifa Ainul Qolbiyah; AHMAD AFIF; VERGIAWAN ZHAKI RASENDRIA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -774,17 +762,17 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; AHMAD AFIF</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; Nabil Hamzah Ash-Shiddiq; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Eva Fitriyaningsih</t>
+          <t>MUHAMMAD LUQMAN HAKIM; Ferdinand Dandyaksa Utama; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; MUHAMMAD GHIFAR AZKA NURHADI; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; NUMERO UNO ARROEFY; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; AHMAD AFIF</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; Nabil Hamzah Ash-Shiddiq; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -802,17 +790,17 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Muhammad Darrel Azmi Tauhid; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Muhammad Darrel Azmi Tauhid; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>Agustinus Zefanya; IFDHA'UL FITRI; TAN, MARIA PUTRI ARIYANI; Salma Nadhira Danuningrat; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; Muhammad Darrel Azmi Tauhid; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Pramudya Oktareza; Muhammad Ariiq Arrafi; CHEISHA AMANDA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Muhammad Darrel Azmi Tauhid; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -827,24 +815,20 @@
           <t>D13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Habib Fabri Arrosyid; Muhamad Yasir Buana Dyva; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Nurul Fadillah; FADHIL MUMTAZ; Muhammad Faqih; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; AHMAD AFIF; VERGIAWAN ZHAKI RASENDRIA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -859,24 +843,20 @@
           <t>D14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Luqman Mohammad Hakim; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Tiffany Anastasia Jocelyn; Rio Alvein Hasana</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Tiffany Anastasia Jocelyn; Rio Alvein Hasana</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Luqman Mohammad Hakim; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Tiffany Anastasia Jocelyn; Rio Alvein Hasana</t>
+          <t>Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; TAN, MARIA PUTRI ARIYANI; Salsabila Azzahra; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Luqman Mohammad Hakim; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; DWI PUTRA PRAYOGA SULAEMAN; Dhianita Shafa; Hilal Rosyid Putra; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Qurrotul 'Aini; RAFIF RABBANI; Muhammad Quwwamul Haq Djunaid</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -891,24 +871,20 @@
           <t>D15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Daffa Kautsar Falih; Nabiel Muaafii Rahman; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; TAN, MARIA PUTRI ARIYANI; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; BRILYAN PANCAR KOMARA; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad bagir shahab; Aszriel Teddy Muhammad; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Muhammad Faqih; Naufal Raya Pragata; Syifa Ainul Qolbiyah; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -923,24 +899,20 @@
           <t>D16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; Pramudya Oktareza; naufal akbar rahardjo; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Viragita Athaya Haura</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; Pramudya Oktareza; naufal akbar rahardjo; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Viragita Athaya Haura</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; ANTONIO; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; Pramudya Oktareza; naufal akbar rahardjo; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Viragita Athaya Haura; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; FADHIL MUMTAZ; NABILA ELORA RASYDA; Eva Fitriyaningsih; AHMAD FAIQ IZZULHAQ; Muhammad Ariiq Arrafi; Muhammad Quwwamul Haq Djunaid; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Rio Alvein Hasana; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -958,17 +930,17 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Rizky Rasyid Wirakusuma; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR</t>
+          <t>Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; Winanci Zahrawaini Setiawan; TAN, MARIA PUTRI ARIYANI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -986,17 +958,17 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Johanna Davina Habeahan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FATIYYA ILMI ZAHRA; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Luqman Mohammad Hakim; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Daffa Kautsar Falih; Nabiel Muaafii Rahman; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; DWI PUTRA PRAYOGA SULAEMAN; TAN, MARIA PUTRI ARIYANI; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; Althaf Nawadir Taqiyyah; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Johanna Davina Habeahan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1011,24 +983,20 @@
           <t>D19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad; Mohammad Mirza Shahbaz Avianto</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Johanna Davina Habeahan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad; Mohammad Mirza Shahbaz Avianto</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ahmad Nur Rohim; Daffa Kautsar Falih; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; Walid Nadirul Ahnaf; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Mirza Hafiz Muhammad; RAFIF RABBANI; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; RAFIF RABBANI; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad; Mohammad Mirza Shahbaz Avianto; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Irfan Alamsyah; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Nurul Fadillah; FADHIL MUMTAZ; Muhammad Faqih; AHMAD AFIF; VERGIAWAN ZHAKI RASENDRIA; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; Muhammad bagir shahab; FIKRI NURHAEKAL</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1043,24 +1011,20 @@
           <t>D20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad; FIKRI NURHAEKAL</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad; FIKRI NURHAEKAL</t>
+          <t>Dhianita Shafa; Ahmad Nur Rohim; Daffa Kautsar Falih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; DICKY ANUGRAH; Muthia Khansa; Naufal Raya Pragata; MUHAMMAD SALMAN MAULANA; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; Althaf Nawadir Taqiyyah; Mirza Hafiz Muhammad; ANDIKA RISKY SURURI; NUMERO UNO ARROEFY; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; BRILYAN PANCAR KOMARA; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Danial Akmal Mahendra; Tristian Yosa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; DAFFA NOFIANSYAH; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; MUHAMAD IRFAN ABDILLAH; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Faqih; Rizky Rasyid Wirakusuma; Tiffany Anastasia Jocelyn; JUSTIN KRISTALDI DJAFAR; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1078,13 +1042,13 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Muhamad Yasir Buana Dyva; Viragita Athaya Haura</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Muhammad Darrel Azmi Tauhid; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Muhamad Yasir Buana Dyva; Viragita Athaya Haura</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Muhammad Darrel Azmi Tauhid; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Ariyudo Pertama; Salma Nadhira Danuningrat; Mike Jared Gunawan; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Luqman Mohammad Hakim; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1099,24 +1063,20 @@
           <t>D22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; REVANDRA ATHAYA RIZKIKA; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Johanna Davina Habeahan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad</t>
+          <t>Dhianita Shafa; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Daffa Kautsar Falih; Nabiel Muaafii Rahman; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; BRILYAN PANCAR KOMARA; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Johanna Davina Habeahan; Aszriel Teddy Muhammad; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Muhammad Faqih; REVANDRA ATHAYA RIZKIKA; AHMAD AFIF; VERGIAWAN ZHAKI RASENDRIA; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Muhammad bagir shahab; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Ghaliyh Rayhan Adz-Dzikra; Winanci Zahrawaini Setiawan; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; REVANDRA ATHAYA RIZKIKA; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1134,17 +1094,17 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Viragita Athaya Haura; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; TAN, MARIA PUTRI ARIYANI; Zhafran Nazhifa Defa; Novia Dwi Lestari; NABILA ELORA RASYDA; Eva Fitriyaningsih; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Muhamad Yasir Buana Dyva; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Daffa Naufal Mumtaz Heryadi; GHIFFARI BRAVIA HISHAM; Winanci Zahrawaini Setiawan; TAN, MARIA PUTRI ARIYANI; Anargya Isadhi Maheswara; MUHAMMAD SALMAN MAULANA; WANDY CHANDRA WIJAYA; Nibras Ramzy; ALDI PRAMUDYA; RAFIF MUHAMMAD FARRAS; Aghnat Hasya Sayyidina; Habib Fabri Arrosyid; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Naufal Ramadhan; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Viragita Athaya Haura; Muhammad bagir shahab; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1159,24 +1119,20 @@
           <t>D24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Muhammad Fauzan Zubaedi; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; WANDY CHANDRA WIJAYA; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Rifqy Naufal Azmi; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; JUSTIN KRISTALDI DJAFAR; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; MUHAMMAD RIZKI AL MAGHRIBI; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Naufal Raya Pragata; Ridho Al Fath Nusantara; Syifa Ainul Qolbiyah; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; LAILATUL SHAKDIYAH; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Viragita Athaya Haura; FARI HAFIZH NUGROHO; Chairul Rifky Tirtacahyadi; Dwi Fitriani Azhari; Muhammad bagir shahab; Aszriel Teddy Muhammad; FIKRI NURHAEKAL</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; Muhammad Abdullah; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; GIVARI MIRZACKY; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ADAM NAUFAL; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; Adrian Muhammad Abimanyu; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1191,24 +1147,20 @@
           <t>D25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DESHI ARDIANI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Muhammad Faqih; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; AHMAD AFIF; MUHAMMAD HAFIDZ RIZKI; VERGIAWAN ZHAKI RASENDRIA; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DESHI ARDIANI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Daffa Kautsar Falih; Nabiel Muaafii Rahman; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Felicia; Surya Dharma Adi; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DESHI ARDIANI; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Allyvia Adzhani Saputra; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Quwwamul Haq Djunaid; Ryan Muhammad Syahran; Sindi Aprilianti; Rizky Rasyid Wirakusuma; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Rio Alvein Hasana; RADEN FITZAL BINTANG NUGRAHA WIRADIKOESOEMA; JUSTIN KRISTALDI DJAFAR; MUHAMMAD HAFIDZ RIZKI; Harits Helmi Nabhan; Aszriel Teddy Muhammad; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Luqman Mohammad Hakim; Muhammad Faqih; AHMAD AFIF; VERGIAWAN ZHAKI RASENDRIA</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Ahmad Nur Rohim; Muhammad Darrel Azmi Tauhid; Daffa Kautsar Falih; Nabiel Muaafii Rahman; GHIFFARI BRAVIA HISHAM; Muhammad Faqih; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; MUHAMMAD AGUNG RIZKIANSYAH; Winanci Zahrawaini Setiawan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Ariyudo Pertama; Muthia Khansa; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Mike Jared Gunawan; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; DARMAWAN SETYAPUTRA PURBA; Nabil Hamzah Ash-Shiddiq; Muhammad Chalied Al Walid; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; Rio Alvein Hasana; ALDI PRAMUDYA; Muhammad Fauzil Azhim; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; FADIA SYAKIRA MUSTANIROH; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Fikri Aulia Rahman</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1223,24 +1175,20 @@
           <t>D26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Johanna Davina Habeahan</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Novia Dwi Lestari; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; Rifqy Naufal Azmi; Johanna Davina Habeahan</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; Muhammad Darrel Azmi Tauhid; GHIFFARI BRAVIA HISHAM; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Ariyudo Pertama; HUSNI ABDILLAH; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; Nibras Ramzy; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Aghnat Hasya Sayyidina; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Johanna Davina Habeahan</t>
+          <t>FARIS HUDA; KHANSA FITRI ZHAFIRAH; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; MUHAMMAD GHIFAR AZKA NURHADI; HUSNI ABDILLAH; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; MUHAMMAD AJISAKA ARSYI TAJ; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; MUHAMMAD RIZKI AL MAGHRIBI; Muhammad Giyas Wisnu Rizqi; Malikus Syafaadi Nurfaza; Aulia Azzahra Syafitri; Johanna Davina Habeahan; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; TAN, MARIA PUTRI ARIYANI; Qurrotul 'Aini; Muhammad Darrel Azmi Tauhid; Novia Dwi Lestari; NABILA ELORA RASYDA; Eva Fitriyaningsih; Mochammad Kevin Ariobimo; Rifqy Naufal Azmi</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; Muhammad Darrel Azmi Tauhid; GHIFFARI BRAVIA HISHAM; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Qurrotul 'Aini; Walid Nadirul Ahnaf; MUHAMMAD AJISAKA ARSYI TAJ; Agustinus Zefanya; IFDHA'UL FITRI; Johanna Davina Habeahan; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Ariyudo Pertama; HUSNI ABDILLAH; RAIHAN PUTRA KIRANA; Insan Anshary Rasul; Salma Nadhira Danuningrat; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; Nibras Ramzy; DARMAWAN SETYAPUTRA PURBA; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Aghnat Hasya Sayyidina; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1255,24 +1203,20 @@
           <t>D27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Dhianita Shafa; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Luqman Mohammad Hakim; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Muhammad Faqih; Naufal Raya Pragata; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Muhammad Fauzan Zubaedi; FIKRI NURHAEKAL; Mohammad Mirza Shahbaz Avianto</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Daffa Kautsar Falih; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Agustinus Zefanya; Muhammad Abdullah; MUHAMMAD AGUNG RIZKIANSYAH; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; GIVARI MIRZACKY; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; ADAM NAUFAL; ALDI PRAMUDYA; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto</t>
+          <t>MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Daffa Kautsar Falih; ANDRA FIRMANSYAH ASMORO; FARIS HUDA; KHANSA FITRI ZHAFIRAH; Agustinus Zefanya; Muhammad Abdullah; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Khalisha Rana Putri; RAIHAN PUTRA KIRANA; GIVARI MIRZACKY; WANDY CHANDRA WIJAYA; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; ANISA HAYATULLAH; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; ADAM NAUFAL; ALDI PRAMUDYA; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Althaf Nawadir Taqiyyah; Hilal Rosyid Putra; DAFFA NOFIANSYAH; Fatha Ariya Prasetya; TAN, MARIA PUTRI ARIYANI; DHARMA PRATAMA; MUHAMMAD GHIFAR AZKA NURHADI; Irfan Alamsyah; Ayyas Mumtaz Yudha; LUTFIAH NURSABILIYANTI; KHANSA FITRI ZHAFIRAH; RAFIF RABBANI; Nurul Fadillah; Khalid Zia Rabbani; JESSLYN GOWIN; MUHAMMAD ILHAM HAKIM SUHERMAN; RIFQI FAUZAN AZZAM; Annisa Nur Rahmadhani; Muhammad Rangga Rafif; MUHAMAD IRFAN ABDILLAH; ANDHIKA RAFI LAZUARDI; Zhafran Nazhifa Defa; Novia Dwi Lestari; FADHIL MUMTAZ; MUHAMMAD RIZKI AL MAGHRIBI; NABILA ELORA RASYDA; Eva Fitriyaningsih; Muhammad Giyas Wisnu Rizqi; Aulia Azzahra Syafitri; Mochammad Kevin Ariobimo; AHMAD FAIQ IZZULHAQ; Pramudya Oktareza; naufal akbar rahardjo; Muhammad Ariiq Arrafi; CHEISHA AMANDA; Ryan Muhammad Syahran; Sindi Aprilianti; Ridho Al Fath Nusantara; Rifqy Naufal Azmi; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; Tiffany Anastasia Jocelyn; Muhammad Fauzan Zubaedi; Mohammad Mirza Shahbaz Avianto; Muhammad Dzaky Hanif; FATIYYA ILMI ZAHRA; DESHI ARDIANI; Steven Lie Wibowo; SAMUEL CHRISTIAN; Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Luqman Mohammad Hakim; Muhammad Faqih; Naufal Raya Pragata; FIKRI NURHAEKAL</t>
+          <t>Steven Hesang; Muhammad Tegar Santoso; MUHAMMAD LUQMAN HAKIM; Dhianita Shafa; Daffa Naufal Mumtaz Heryadi; MUHAMMAD ZAKY GHOETTI ANANDA; Ferdinand Dandyaksa Utama; Daffa Kautsar Falih; GHIFFARI BRAVIA HISHAM; ANDRA FIRMANSYAH ASMORO; Muhammad Faqih; FARIS HUDA; KHANSA FITRI ZHAFIRAH; AHMAD SUBHAN DARYHADI; Qurrotul 'Aini; Agustinus Zefanya; Muhammad Abdullah; MUHAMMAD AGUNG RIZKIANSYAH; MUHAMMAD ZAHRAN; DWI PUTRA PRAYOGA SULAEMAN; Hilal Rosyid Putra; TAN, MARIA PUTRI ARIYANI; MUHAMMAD GHIFAR AZKA NURHADI; Anargya Isadhi Maheswara; Salsabila Azzahra; DICKY ANUGRAH; Muthia Khansa; LUTHFI MUHARRAM; HUSNI ABDILLAH; Naufal Raya Pragata; Khalisha Rana Putri; KIVI ADELIO; MUHAMMAD SALMAN MAULANA; RAIHAN PUTRA KIRANA; GIVARI MIRZACKY; WANDY CHANDRA WIJAYA; GRASELA ANGGI ASIMIMA MARBUN; Althaf Nawadir Taqiyyah; DAFFA NOFIANSYAH; Mirza Hafiz Muhammad; RAFIF RABBANI; Irfan Alamsyah; ANDIKA RISKY SURURI; Muhammad Ikhlash; Medina Fitri Maulida; NUMERO UNO ARROEFY; VIBY LADYSCHA YALASENA WINARNO; Nibras Ramzy; ANISA HAYATULLAH; Muhammad Chalied Al Walid; NAUFAL GHIFARI AFDHALA; Faiz Naufal Huda; GHANIANDA WAFIQARIFAH; ADAM NAUFAL; ALDI PRAMUDYA; Tiffany Anastasia Jocelyn; Fatha Ariya Prasetya; DHARMA PRATAMA; RAFIF MUHAMMAD FARRAS; Muhammad Giyas Wisnu Rizqi; Muhammad Allif Qalbiy; Daffa Aulia Musyaffa Subyantoro; Luqman Mohammad Hakim; Felicia; Surya Dharma Adi; BRILYAN PANCAR KOMARA; Aghnat Hasya Sayyidina; MUHAMMAD SYAFIQ ROMADHON; Afif Fakhri Muhammad; FADIA SYAKIRA MUSTANIROH; Muhammad Resqyan Nurul Aqli; Habib Fabri Arrosyid; Syifa Ainul Qolbiyah; Muhamad Yasir Buana Dyva; ANTONIO; MARSTELLA NATALINE PURBA SIBORO; Muhammad Naufal Ramadhan; Muhammad Rangga Rafif; Nurul Fadillah; ALIYA SHAHIRA; Syifa Adawiyah; ANDHIKA RAFI LAZUARDI; Eva Fitriyaningsih; MUHAMMAD IHSAN FADHILLAH; Danial Akmal Mahendra; Tristian Yosa; MUHAMMAD GHANIM MUKAFIH; Fikri Aulia Rahman; MUTIA SANIYA RAHMA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
